--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Country.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>@default</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>清</t>
+  </si>
+  <si>
+    <t>民國</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -3384,6 +3387,21 @@
         <v>1911</v>
       </c>
     </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>18001</v>
+      </c>
+      <c r="B118" s="1">
+        <f>INT(A118/1000)</f>
+        <v>18</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Country.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Country.xlsx
@@ -1289,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
